--- a/src/main/java/com/ab/test/data/TestCases.xlsx
+++ b/src/main/java/com/ab/test/data/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Sr No</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>BlockRegistration</t>
-  </si>
-  <si>
-    <t>Adopt a Block   with Valid Details</t>
-  </si>
-  <si>
     <t>Create a Event  With All Required Data</t>
   </si>
   <si>
@@ -126,10 +120,52 @@
     <t>CreateNews</t>
   </si>
   <si>
+    <t>BlockRegistrationWithoutLogin</t>
+  </si>
+  <si>
+    <t>BlockRegistrationWithLogin</t>
+  </si>
+  <si>
+    <t>Adopt a Block   without login and  Valid Details</t>
+  </si>
+  <si>
+    <t>Adopt a Block with login and  Valid Details</t>
+  </si>
+  <si>
+    <t>Scenario_T_05</t>
+  </si>
+  <si>
+    <t>Scenario_T_07</t>
+  </si>
+  <si>
+    <t>EditEvent</t>
+  </si>
+  <si>
+    <t>Scenario_T_10</t>
+  </si>
+  <si>
+    <t>Update Event with all Required Data</t>
+  </si>
+  <si>
+    <t>AddCleanUps</t>
+  </si>
+  <si>
+    <t>Scenario_T_11</t>
+  </si>
+  <si>
+    <t>Fill all required Information</t>
+  </si>
+  <si>
+    <t>EditNews</t>
+  </si>
+  <si>
+    <t>Scenario_T_12</t>
+  </si>
+  <si>
+    <t>Updateing News with all required data</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -652,19 +688,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="J8" pane="bottomLeft" sqref="J8"/>
+      <selection activeCell="H9" pane="bottomLeft" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" style="4" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="25.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="29.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="5" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="10.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="11.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="5" width="20.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="8" width="71.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="4" width="11.42578125" collapsed="true"/>
@@ -702,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -714,14 +750,12 @@
         <v>9</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="H2" s="5"/>
     </row>
     <row customHeight="1" ht="18.75" r="3" spans="1:8">
       <c r="A3" s="9">
@@ -745,14 +779,16 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row customHeight="1" ht="16.5" r="4" spans="1:8">
-      <c r="A4" s="9">
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="4" spans="1:8">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -764,19 +800,19 @@
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="5" spans="1:8">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row customHeight="1" ht="16.5" r="5" spans="1:8">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -788,19 +824,19 @@
         <v>16</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row customHeight="1" ht="18.75" r="6" spans="1:8">
-      <c r="A6" s="9">
+    <row customHeight="1" ht="16.5" r="6" spans="1:8">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
@@ -809,21 +845,22 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18" r="7" spans="1:8">
+      <c r="H6" s="5"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="7" spans="1:8">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -835,19 +872,19 @@
         <v>20</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row customHeight="1" ht="17.25" r="8" spans="1:8">
+    <row customHeight="1" ht="16.5" r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
@@ -856,21 +893,22 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="9" spans="1:8">
+      <c r="H8" s="5"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="9" spans="1:8">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -879,42 +917,113 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row customHeight="1" ht="18.75" r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="11" spans="1:8">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row customHeight="1" ht="17.25" r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" spans="1:8">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row customHeight="1" ht="17.25" r="10" spans="1:8"/>
-    <row customHeight="1" ht="15.75" r="11" spans="1:8"/>
-    <row r="12" spans="1:8">
-      <c r="A12" s="9"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="9"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row customHeight="1" ht="17.25" r="14" spans="1:8"/>
+    <row customHeight="1" ht="15.75" r="15" spans="1:8"/>
     <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="C16" s="6"/>
@@ -1143,6 +1252,30 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="9"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="9"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="9"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
